--- a/ExcelValidationTests/Files/DemoFiles.xlsx
+++ b/ExcelValidationTests/Files/DemoFiles.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iodom\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iodom\source\repos\ExcelValidation\ExcelValidationTests\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56713A7D-365C-46DD-AD90-04E81FCFC120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B143A97-66E8-4136-8537-7361C3DBC17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BF2E69D5-EE2F-4E94-9584-E68C6F4C2E26}"/>
+    <workbookView xWindow="3396" yWindow="552" windowWidth="17280" windowHeight="8964" xr2:uid="{BF2E69D5-EE2F-4E94-9584-E68C6F4C2E26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,37 +42,37 @@
     <t>Username</t>
   </si>
   <si>
+    <t>jsnowden</t>
+  </si>
+  <si>
+    <t>jsnowden@mailinator.com</t>
+  </si>
+  <si>
+    <t>eokoye</t>
+  </si>
+  <si>
+    <t>eokoye@mailinator.com</t>
+  </si>
+  <si>
+    <t>mchukwu</t>
+  </si>
+  <si>
+    <t>mchukwu@mailinator.com</t>
+  </si>
+  <si>
+    <t>aalu</t>
+  </si>
+  <si>
+    <t>aalu@appzonegroup.com</t>
+  </si>
+  <si>
+    <t>ucso</t>
+  </si>
+  <si>
+    <t>stephen.onyidu@outlook.com</t>
+  </si>
+  <si>
     <t>Email</t>
-  </si>
-  <si>
-    <t>jsnowden</t>
-  </si>
-  <si>
-    <t>jsnowden@mailinator.com</t>
-  </si>
-  <si>
-    <t>eokoye</t>
-  </si>
-  <si>
-    <t>eokoye@mailinator.com</t>
-  </si>
-  <si>
-    <t>mchukwu</t>
-  </si>
-  <si>
-    <t>mchukwu@mailinator.com</t>
-  </si>
-  <si>
-    <t>aalu</t>
-  </si>
-  <si>
-    <t>aalu@appzonegroup.com</t>
-  </si>
-  <si>
-    <t>ucso</t>
-  </si>
-  <si>
-    <t>stephen.onyidu@outlook.com</t>
   </si>
 </sst>
 </file>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -448,10 +448,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -459,10 +459,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -470,10 +470,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -481,10 +481,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -492,10 +492,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelValidationTests/Files/DemoFiles.xlsx
+++ b/ExcelValidationTests/Files/DemoFiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iodom\source\repos\ExcelValidation\ExcelValidationTests\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B143A97-66E8-4136-8537-7361C3DBC17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295A6EB6-4BB2-45CC-8ACA-2E657F569B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3396" yWindow="552" windowWidth="17280" windowHeight="8964" xr2:uid="{BF2E69D5-EE2F-4E94-9584-E68C6F4C2E26}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Username</t>
   </si>
@@ -64,9 +61,6 @@
   </si>
   <si>
     <t>aalu@appzonegroup.com</t>
-  </si>
-  <si>
-    <t>ucso</t>
   </si>
   <si>
     <t>stephen.onyidu@outlook.com</t>
@@ -426,21 +420,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AABADD6-EF0B-4855-A1FC-D12CEF84D1C7}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -448,10 +437,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -459,10 +448,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -470,10 +459,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -481,21 +470,18 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelValidationTests/Files/DemoFiles.xlsx
+++ b/ExcelValidationTests/Files/DemoFiles.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iodom\source\repos\ExcelValidation\ExcelValidationTests\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295A6EB6-4BB2-45CC-8ACA-2E657F569B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828B72CB-88D4-47F0-A6B1-29C8B55F9AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3396" yWindow="552" windowWidth="17280" windowHeight="8964" xr2:uid="{BF2E69D5-EE2F-4E94-9584-E68C6F4C2E26}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Username</t>
   </si>
@@ -45,18 +45,12 @@
     <t>jsnowden@mailinator.com</t>
   </si>
   <si>
-    <t>eokoye</t>
-  </si>
-  <si>
     <t>eokoye@mailinator.com</t>
   </si>
   <si>
     <t>mchukwu</t>
   </si>
   <si>
-    <t>mchukwu@mailinator.com</t>
-  </si>
-  <si>
     <t>aalu</t>
   </si>
   <si>
@@ -67,6 +61,9 @@
   </si>
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>Id</t>
   </si>
 </sst>
 </file>
@@ -420,16 +417,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AABADD6-EF0B-4855-A1FC-D12CEF84D1C7}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -447,11 +449,8 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -459,10 +458,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -470,10 +466,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -481,7 +477,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelValidationTests/Files/DemoFiles.xlsx
+++ b/ExcelValidationTests/Files/DemoFiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iodom\source\repos\ExcelValidation\ExcelValidationTests\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828B72CB-88D4-47F0-A6B1-29C8B55F9AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD5690B-00C1-4809-B8FE-24A820275117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3396" yWindow="552" windowWidth="17280" windowHeight="8964" xr2:uid="{BF2E69D5-EE2F-4E94-9584-E68C6F4C2E26}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Username</t>
   </si>
@@ -64,16 +64,33 @@
   </si>
   <si>
     <t>Id</t>
+  </si>
+  <si>
+    <t>eokoye</t>
+  </si>
+  <si>
+    <t>mchukwu@mailinator.com</t>
+  </si>
+  <si>
+    <t>stephen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -96,13 +113,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -418,7 +438,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -449,6 +469,9 @@
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -460,6 +483,9 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -476,11 +502,17 @@
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{BE437BE9-45DB-4434-A6F4-FE42166404D1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>